--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,43 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43519,6 +43519,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43556,6 +43556,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43630,6 +43630,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43667,6 +43667,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,80 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,80 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43852,6 +43852,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43963,6 +43963,80 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44037,6 +44037,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85549,6 +85549,43 @@
         </is>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85586,6 +85586,43 @@
         </is>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85623,6 +85623,43 @@
         </is>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2396" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85660,6 +85660,43 @@
         </is>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2397" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85697,6 +85697,43 @@
         </is>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2398" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85734,6 +85734,41 @@
         </is>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85769,6 +85769,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85804,6 +85804,43 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2401" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2401"/>
+  <dimension ref="A1:I2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85841,6 +85841,41 @@
         </is>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2402" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2402"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85876,6 +85876,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2403" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5069.xlsx
+++ b/data/5069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85911,6 +85911,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>BLDPLNT</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
